--- a/02 CLanguage/010 结构体内存对齐 结构体数组.xlsx
+++ b/02 CLanguage/010 结构体内存对齐 结构体数组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB74DAD7-519F-4FE5-B204-32F52CB78E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F77DED5-A6AF-435B-B432-88D04EF6F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="235">
   <si>
     <t>1、sizeof的使用</t>
   </si>
@@ -709,9 +709,6 @@
     <t>ms[i].p.z=(float)i;</t>
   </si>
   <si>
-    <t>void GetMsInfo()</t>
-  </si>
-  <si>
     <t>printf("ID: %d\nNAME: %s\nHP: %d\nRank: %d\nPosition: %f %f %f\n\n",ms[i].Id,ms[i].Name,ms[i].HealthPoint,ms[i].Rank,ms[i].p.x,ms[i].p.y,ms[i].p.z);</t>
   </si>
   <si>
@@ -722,9 +719,6 @@
   </si>
   <si>
     <t>MonsterInit();</t>
-  </si>
-  <si>
-    <t>GetMsInfo();</t>
   </si>
   <si>
     <t>26+6=32(凑满对齐参数的整数倍)</t>
@@ -752,6 +746,24 @@
   <si>
     <t>12  最大成员大小4byte，总结构体大小为52byte</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>void GetMsInfoById(int id)</t>
+  </si>
+  <si>
+    <t>if(id&lt;10)</t>
+  </si>
+  <si>
+    <t>if(id!=ms[i].Id) continue;</t>
+  </si>
+  <si>
+    <t>}else{</t>
+  </si>
+  <si>
+    <t>printf("NONE\n");</t>
+  </si>
+  <si>
+    <t>GetMsInfoById(9);</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1801,7 @@
   <dimension ref="B4:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3068,7 +3080,7 @@
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C119" s="30"/>
       <c r="D119" s="30"/>
@@ -3783,7 +3795,7 @@
   </sheetPr>
   <dimension ref="B5:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4250,15 +4262,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE58DB8A-1A74-4163-9243-C2FFD24C739D}">
-  <dimension ref="B5:M66"/>
+  <dimension ref="B5:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:M68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -4272,7 +4288,9 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>193</v>
+      </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -4286,9 +4304,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
-        <v>192</v>
-      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -4303,7 +4319,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -4318,7 +4334,9 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="C9" s="30" t="s">
+        <v>195</v>
+      </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -4333,7 +4351,7 @@
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -4348,10 +4366,10 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -4364,10 +4382,10 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>197</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -4382,7 +4400,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4396,10 +4414,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>197</v>
-      </c>
+      <c r="C14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -4413,9 +4431,7 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>198</v>
-      </c>
+      <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -4429,7 +4445,7 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -4444,7 +4460,9 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4458,10 +4476,10 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>200</v>
+      </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -4474,10 +4492,10 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>201</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -4492,7 +4510,7 @@
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -4508,7 +4526,7 @@
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -4524,7 +4542,7 @@
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -4539,9 +4557,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>203</v>
-      </c>
+      <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -4554,10 +4570,10 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>204</v>
-      </c>
+      <c r="C24" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -4585,7 +4601,7 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -4600,7 +4616,9 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="30" t="s">
+        <v>206</v>
+      </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -4614,9 +4632,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>205</v>
-      </c>
+      <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -4631,7 +4647,7 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -4646,7 +4662,9 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -4660,9 +4678,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
-      <c r="C31" s="30" t="s">
-        <v>207</v>
-      </c>
+      <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -4676,10 +4692,10 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30" t="s">
+        <v>208</v>
+      </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
@@ -4693,7 +4709,9 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="30" t="s">
+        <v>209</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -4708,7 +4726,7 @@
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -4724,7 +4742,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -4739,10 +4757,10 @@
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="s">
+        <v>211</v>
+      </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
@@ -4755,10 +4773,10 @@
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="s">
+        <v>212</v>
+      </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -4773,7 +4791,7 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -4789,7 +4807,7 @@
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -4805,7 +4823,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
@@ -4821,7 +4839,7 @@
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
@@ -4837,7 +4855,7 @@
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -4851,10 +4869,10 @@
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
-        <v>216</v>
-      </c>
+      <c r="D43" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
@@ -4866,11 +4884,11 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="C44" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
-        <v>217</v>
-      </c>
+      <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
@@ -4883,9 +4901,7 @@
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
@@ -4899,7 +4915,7 @@
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -4914,7 +4930,9 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -4928,10 +4946,10 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
-      <c r="C48" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30" t="s">
+        <v>208</v>
+      </c>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -4944,10 +4962,10 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
-      <c r="C49" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
+        <v>230</v>
+      </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -4962,7 +4980,7 @@
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -4977,10 +4995,10 @@
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="30"/>
+      <c r="E51" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
@@ -4993,11 +5011,13 @@
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="30"/>
+      <c r="E52" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="F52" s="30" t="s">
+        <v>231</v>
+      </c>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -5010,10 +5030,10 @@
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -5026,9 +5046,7 @@
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="30" t="s">
-        <v>220</v>
-      </c>
+      <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
@@ -5041,10 +5059,10 @@
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
@@ -5056,10 +5074,10 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30" t="s">
+        <v>232</v>
+      </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
@@ -5074,7 +5092,9 @@
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+      <c r="E57" s="30" t="s">
+        <v>233</v>
+      </c>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
@@ -5086,10 +5106,10 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
-      <c r="C58" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
@@ -5102,9 +5122,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
-      <c r="C59" s="30" t="s">
-        <v>11</v>
-      </c>
+      <c r="C59" s="30"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
@@ -5119,9 +5137,7 @@
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="30" t="s">
-        <v>222</v>
-      </c>
+      <c r="D60" s="30"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30"/>
@@ -5134,10 +5150,10 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30" t="s">
-        <v>223</v>
-      </c>
+      <c r="C61" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="30"/>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
@@ -5151,9 +5167,7 @@
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="30" t="s">
-        <v>220</v>
-      </c>
+      <c r="D62" s="30"/>
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -5167,7 +5181,7 @@
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="30"/>
       <c r="C63" s="30" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
@@ -5182,7 +5196,9 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="C64" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
       <c r="F64" s="30"/>
@@ -5197,7 +5213,9 @@
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="30" t="s">
+        <v>221</v>
+      </c>
       <c r="E65" s="30"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
@@ -5211,7 +5229,9 @@
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="D66" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
@@ -5222,9 +5242,42 @@
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
     </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5232,8 +5285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E12DE-0953-4B70-89BF-054F4CFC697C}">
   <dimension ref="B4:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5436,7 +5489,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -5449,7 +5502,7 @@
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N13" s="43"/>
     </row>
@@ -5485,7 +5538,7 @@
         <v>179</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
@@ -5518,7 +5571,7 @@
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N16" s="43"/>
     </row>
@@ -5526,7 +5579,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="32"/>
       <c r="D17" s="47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -5635,7 +5688,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="30"/>
@@ -5653,7 +5706,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -5709,7 +5762,7 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
